--- a/ZYJ-Client TestCase/作业家学生端.xlsx
+++ b/ZYJ-Client TestCase/作业家学生端.xlsx
@@ -1,48 +1,427 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>执行步骤</t>
+  </si>
+  <si>
+    <t>预测结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>通过（是/否）</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>测试用例个数</t>
+  </si>
+  <si>
+    <t>已执行用例个数</t>
+  </si>
+  <si>
+    <t>未执行用例个数</t>
+  </si>
+  <si>
+    <t>执行通过用例个数</t>
+  </si>
+  <si>
+    <t>执行失败用例个数</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,9 +429,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -61,10 +682,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1023,129 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="12:12">
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="12:13">
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="12:13">
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF(G:G,"NULL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="12:13">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIF(G:G,"PASS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="12:13">
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIF(G:G,"FAIL")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZYJ-Client TestCase/作业家学生端.xlsx
+++ b/ZYJ-Client TestCase/作业家学生端.xlsx
@@ -7,16 +7,39 @@
     <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="统计" sheetId="5" r:id="rId1"/>
+    <sheet name="作业" sheetId="1" r:id="rId2"/>
+    <sheet name="练习" sheetId="2" r:id="rId3"/>
+    <sheet name="错题" sheetId="3" r:id="rId4"/>
+    <sheet name="我的" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+  <si>
+    <t>测试用例个数</t>
+  </si>
+  <si>
+    <t>已执行用例个数</t>
+  </si>
+  <si>
+    <t>未执行用例个数</t>
+  </si>
+  <si>
+    <t>执行通过用例个数</t>
+  </si>
+  <si>
+    <t>执行失败用例个数</t>
+  </si>
+  <si>
+    <t>执行测试结果正确率</t>
+  </si>
+  <si>
+    <t>执行测试结果错误率</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -42,19 +65,574 @@
     <t>备注</t>
   </si>
   <si>
-    <t>测试用例个数</t>
-  </si>
-  <si>
-    <t>已执行用例个数</t>
-  </si>
-  <si>
-    <t>未执行用例个数</t>
-  </si>
-  <si>
-    <t>执行通过用例个数</t>
-  </si>
-  <si>
-    <t>执行失败用例个数</t>
+    <t>全部作业-未完成-新的班级作业</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-新的分组作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-新的错题作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-未答完的班级作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-未答完的分组作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-未答完的错题作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-提交班级作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-提交分组作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-提交错题作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-断开网络，提交作业</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-断开网络，提交作业后，重新连接网络</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，断开网络</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，断开网络后，重新连接网络</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，退出账号</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，退出程序</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，退出程序，重新启动程序，作业继续上传</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，杀掉程序</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-上传作业过程中，杀掉程序，重新启动程序，作业继续上传</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-管理员删除科目后，该科目下的未完成作业消失</t>
+  </si>
+  <si>
+    <t>全部作业-未完成-管理员添加科目后，能收到该科目的新作业</t>
+  </si>
+  <si>
+    <t>做作业-查看作业信息</t>
+  </si>
+  <si>
+    <t>做作业-首次打开，显示备注</t>
+  </si>
+  <si>
+    <t>有备注</t>
+  </si>
+  <si>
+    <t>做作业-第二次打开，不显示备注</t>
+  </si>
+  <si>
+    <t>做作业-查看作业进度</t>
+  </si>
+  <si>
+    <t>没有答题</t>
+  </si>
+  <si>
+    <t>有答题</t>
+  </si>
+  <si>
+    <t>做作业-点击作业进度上的未作答的题号，跳转到对应题目</t>
+  </si>
+  <si>
+    <t>做作业-点击作业进度上的已经作答的题号，跳转到对应题目</t>
+  </si>
+  <si>
+    <t>做作业-单选择题-选择答案</t>
+  </si>
+  <si>
+    <t>做作业-单选择题-修改选择</t>
+  </si>
+  <si>
+    <t>做作业-单选择题-不选择答案</t>
+  </si>
+  <si>
+    <t>做作业-多项选择题-选择一个答案</t>
+  </si>
+  <si>
+    <t>做作业-多项选择题-选择多个答案</t>
+  </si>
+  <si>
+    <t>做作业-多项选择题-选择所有答案</t>
+  </si>
+  <si>
+    <t>做作业-多项选择题-不选择答案</t>
+  </si>
+  <si>
+    <t>做作业-多项选择题-修改已选答案</t>
+  </si>
+  <si>
+    <t>做作业-填空题-添加一个答案</t>
+  </si>
+  <si>
+    <t>做作业-填空题-一次添加多个答案</t>
+  </si>
+  <si>
+    <t>做作业-填空题-一次添加所有答案</t>
+  </si>
+  <si>
+    <t>做作业=填空题-删除答案</t>
+  </si>
+  <si>
+    <t>做作业-填空题-修改答案</t>
+  </si>
+  <si>
+    <t>做作业-填空题-保存并下一空，光标移动正确</t>
+  </si>
+  <si>
+    <t>做作业-填空题-长答题空显示</t>
+  </si>
+  <si>
+    <t>做作业-填空题-短答题空显示</t>
+  </si>
+  <si>
+    <t>做作业-填空题-空答题空显示</t>
+  </si>
+  <si>
+    <t>做作业-简答题-选择题答题纸</t>
+  </si>
+  <si>
+    <t>做作业-简答题-未作答时，不能继续添加答题纸</t>
+  </si>
+  <si>
+    <t>做作业-简答题-在一张答题纸上作答</t>
+  </si>
+  <si>
+    <t>做作业-简答题-作答后，点击保存按钮，添加一张新的答题纸</t>
+  </si>
+  <si>
+    <t>做作业=简答题-做大后，点击保存并下一题，光标切换到下一个小题的答题纸</t>
+  </si>
+  <si>
+    <t>做作业-简答题-删除答案</t>
+  </si>
+  <si>
+    <t>组作业-简答题-修改答案</t>
+  </si>
+  <si>
+    <t>做作业-简答题-在图片上做辅助线</t>
+  </si>
+  <si>
+    <t>做作业-简答题-在图片上做辅助线，保存</t>
+  </si>
+  <si>
+    <t>做作业-简答题-在图片上做辅助线，清空</t>
+  </si>
+  <si>
+    <t>做作业-实时笔记-查看笔记</t>
+  </si>
+  <si>
+    <t>开启实时笔记</t>
+  </si>
+  <si>
+    <t>关闭实时笔记</t>
+  </si>
+  <si>
+    <t>做作业-链接手写板-链接成功</t>
+  </si>
+  <si>
+    <t>做作业-链接手写板-链接失败</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看带批改的作业</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看已经查看过的已批改作业</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看未查看过的已批改作业</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看班级作业条目</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看分组作业条目</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看错题作业条目</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看未发布正确答案的作业</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看已发布正确答案的作业</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看标准答案</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看同学正确答案</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看做错的题目，有立即重做按钮</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看已重做的错题，立即重做按钮被隐藏</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看批改完作业的作业信息</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-查看待批改作业的作业信息</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-收到批改结果后，作业状态改变</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-管理员端删除科目后，该科目下的作业消失</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-管理员端添加科目后，该科目下的待批改作业正确显示</t>
+  </si>
+  <si>
+    <t>全部作业-已完成-管理员端添加科目后，该科目下的已批完作业正确显示</t>
+  </si>
+  <si>
+    <t>筛选-查看筛选条件</t>
+  </si>
+  <si>
+    <t>筛选-管理员端删除科目，筛选条件更新</t>
+  </si>
+  <si>
+    <t>筛选-管理员端添加科目，筛选条件更新</t>
+  </si>
+  <si>
+    <t>筛选-查看筛选结果-未完成的作业</t>
+  </si>
+  <si>
+    <t>筛选-查看筛选结果-已完成的作业</t>
+  </si>
+  <si>
+    <t>筛选-切换筛选条件-查看筛选结果</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>筛选-从筛选结果返回到主页面，显示正确</t>
+  </si>
+  <si>
+    <t>练习-科目-查看教学计划</t>
+  </si>
+  <si>
+    <t>练习-科目-查看该科目下的教学计划列表</t>
+  </si>
+  <si>
+    <t>练习-科目-切换教学计划</t>
+  </si>
+  <si>
+    <t>练习-科目-管理员端添加教学计划后，教学计划列表更新</t>
+  </si>
+  <si>
+    <t>练习-科目-管理员端添加教学计划后，切换教学计划</t>
+  </si>
+  <si>
+    <t>练习-科目-管理员端删除教学计划后，教学计划列表更新</t>
+  </si>
+  <si>
+    <t>练习-科目-管理员端删除教学计划后，切换教学计划</t>
+  </si>
+  <si>
+    <t>练习-科目-查看教学计划的课时列表</t>
+  </si>
+  <si>
+    <t>练习-科目-切换教学计划后，查看教学计划的课时列表</t>
+  </si>
+  <si>
+    <t>练习-科目-查看课时下的题目列表</t>
+  </si>
+  <si>
+    <t>练习-科目-切换管理员新添加的教学计划，查看课时下的题目列表</t>
+  </si>
+  <si>
+    <t>练习-题目列表-选择题目</t>
+  </si>
+  <si>
+    <t>练习-题目列表-选择题目后，已选按钮数字更新</t>
+  </si>
+  <si>
+    <t>练习-题目列表-取消选择</t>
+  </si>
+  <si>
+    <t>练习-题目列表-取消选择后，已选按钮数字更细</t>
+  </si>
+  <si>
+    <t>练习-已选题目-查看已选题目</t>
+  </si>
+  <si>
+    <t>练习-已选题目-删除一条题目</t>
+  </si>
+  <si>
+    <t>练习-已选题目-删除多条题目</t>
+  </si>
+  <si>
+    <t>练习-已选题目-删除所有题目</t>
+  </si>
+  <si>
+    <t>练习-已选题目-删除一条题目后返回到题目列表，查看已选按钮更新</t>
+  </si>
+  <si>
+    <t>练习-已选题目-删除所有题目后，点击开始做题按钮</t>
+  </si>
+  <si>
+    <t>练习-已选题目-删除一道题目后，返回到题目列表，选择新的题目，在回到已选题目，查看题目</t>
+  </si>
+  <si>
+    <t>练习-已选题目-查看已选题目后，点击开始做题</t>
+  </si>
+  <si>
+    <t>练习-做题后，提交作业，跳转到 练习报告页</t>
+  </si>
+  <si>
+    <t>练习-做题，未做完，退出</t>
+  </si>
+  <si>
+    <t>练习-练习报告，点击客观题，观看答案</t>
+  </si>
+  <si>
+    <t>练习-练习报告，点击主观题，查看答案</t>
+  </si>
+  <si>
+    <t>练习-练习报告，点击全部题目答案，查看答案</t>
+  </si>
+  <si>
+    <t>练习-练习报告，查看题目数量</t>
+  </si>
+  <si>
+    <t>练习-练习报告，查看客观题题目数量</t>
+  </si>
+  <si>
+    <t>练习-练习报告，查看主观题题目数量</t>
+  </si>
+  <si>
+    <t>练习-练习记录，未做完的作业，显示继续练习</t>
+  </si>
+  <si>
+    <t>练习-练习记录，已做完的作业记录</t>
+  </si>
+  <si>
+    <t>练习-练习记录，查看已做完的作业记录</t>
+  </si>
+  <si>
+    <t>练习-练习记录，查看未做完的作业</t>
+  </si>
+  <si>
+    <t>练习-练习记录，继续做未做完的作业</t>
+  </si>
+  <si>
+    <t>练习-练习记录，做完作业后，提交作业</t>
+  </si>
+  <si>
+    <t>练习-练习记录，管理员删除课程后，练习记录更新</t>
+  </si>
+  <si>
+    <t>练习-管理员删除课程后，课程消失</t>
+  </si>
+  <si>
+    <t>练习-管理员添加课程后，课程被显示</t>
+  </si>
+  <si>
+    <t>练习-管理员添加课程后，在该课程添加练习</t>
+  </si>
+  <si>
+    <t>错题-管理员删除课程后，该课程的错题消失</t>
+  </si>
+  <si>
+    <t>错题-管理员删除课程后，该课程已经重做的错题消失</t>
+  </si>
+  <si>
+    <t>错题-管理员添加课程后，课程列表显示该课程</t>
+  </si>
+  <si>
+    <t>错题-教材-查看教材列表</t>
+  </si>
+  <si>
+    <t>错题-教材-切换教材</t>
+  </si>
+  <si>
+    <t>错题-教材-查看只显示错题的章节</t>
+  </si>
+  <si>
+    <t>错题-教材-查看显示全部章节</t>
+  </si>
+  <si>
+    <t>错题-教材-查看错题章节下的错题数量</t>
+  </si>
+  <si>
+    <t>错题-教材-老师批改作业后，错题章节下的错题数量更新</t>
+  </si>
+  <si>
+    <t>错题-查看错题列表</t>
+  </si>
+  <si>
+    <t>错题-错题列表-筛选，查看筛选条件</t>
+  </si>
+  <si>
+    <t>错题-错题列表-筛选，按题型筛选</t>
+  </si>
+  <si>
+    <t>错题-错题列表-筛选，按分数筛选</t>
+  </si>
+  <si>
+    <t>错题-错题列表-筛序，按题型和分数筛选</t>
+  </si>
+  <si>
+    <t>错题-错题列表-重置筛选条件</t>
+  </si>
+  <si>
+    <t>错题-错题列表-查看筛选结果</t>
+  </si>
+  <si>
+    <t>错题-重做错题-查看错题详情</t>
+  </si>
+  <si>
+    <t>错题-重做错题-查看错题记录</t>
+  </si>
+  <si>
+    <t>错题-重做错题-查看标准答案</t>
+  </si>
+  <si>
+    <t>错题-重做错题-删除答案</t>
+  </si>
+  <si>
+    <t>错题-重做错题-删除答案后，添加新答案</t>
+  </si>
+  <si>
+    <t>错题-重做错题-修改答案</t>
+  </si>
+  <si>
+    <t>错题-重做错题-重做以后，不能再做</t>
+  </si>
+  <si>
+    <t>错题-重做错题-重做后，提交后，在我重做的错题显示</t>
+  </si>
+  <si>
+    <t>错题-重做错题-错题补偿，点击同类题型巩固练习</t>
+  </si>
+  <si>
+    <t>错题-错题补偿-提交后，跳转到练习报告页</t>
+  </si>
+  <si>
+    <t>错题-错题补偿-提交后，在练习记录中显示</t>
+  </si>
+  <si>
+    <t>错题-我重做的错题-查看待批改作业</t>
+  </si>
+  <si>
+    <t>错题-我重做的错题-查看已批改作业</t>
+  </si>
+  <si>
+    <t>错题-我重做的错题-收到已批改的作业后，已批改的显示</t>
+  </si>
+  <si>
+    <t>错题-我重做的错题-收到已批改的作业后，待批改的显示</t>
+  </si>
+  <si>
+    <t>错题-我重做的错题-查看已批改的作业</t>
+  </si>
+  <si>
+    <t>错题-我重做的错题-重做做错的题目</t>
+  </si>
+  <si>
+    <t>账号-查看账号名称</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>账号-查看账号班级</t>
+  </si>
+  <si>
+    <t>账号-查看账号头像</t>
+  </si>
+  <si>
+    <t>账号-重新设置账号头像</t>
+  </si>
+  <si>
+    <t>设置-修改密码</t>
+  </si>
+  <si>
+    <t>设置-修改密码后，用新密码登录</t>
+  </si>
+  <si>
+    <t>设置-修改密码后，用旧密码登录</t>
+  </si>
+  <si>
+    <t>设置-手写板笔记选择-粗，查看效果</t>
+  </si>
+  <si>
+    <t>设置-手写板笔记选择-中，查看效果</t>
+  </si>
+  <si>
+    <t>设置-手写板笔记选择-细，查看效果</t>
+  </si>
+  <si>
+    <t>设置-反馈问题-无图片，无描述，提交</t>
+  </si>
+  <si>
+    <t>设置-反馈问题-有图片，无描述，提交</t>
+  </si>
+  <si>
+    <t>设置-反馈问题-无图片，有描述，提交</t>
+  </si>
+  <si>
+    <t>设置-反馈问题-有图片，有描述，提交</t>
+  </si>
+  <si>
+    <t>设置-升级-点击升级按钮，下载安装包</t>
+  </si>
+  <si>
+    <t>设置-升级-点击升级按钮，提示最新版本</t>
+  </si>
+  <si>
+    <t>设置-升级-启动APP，下载安装包</t>
+  </si>
+  <si>
+    <t>设置-升级-启动APP，直接进入首页</t>
+  </si>
+  <si>
+    <t>设置-二维码-作业家二维码</t>
+  </si>
+  <si>
+    <t>设置-二维码-学生账号二维码</t>
+  </si>
+  <si>
+    <t>设置-退出登录</t>
+  </si>
+  <si>
+    <t>设置-上传作业过程中，退出登录</t>
+  </si>
+  <si>
+    <t>登录-反馈问题-无图片，无描述，提交</t>
+  </si>
+  <si>
+    <t>登录-反馈问题-有图片，无描述，提交</t>
+  </si>
+  <si>
+    <t>登录-反馈问题-无图片，有描述，提交</t>
+  </si>
+  <si>
+    <t>登录-反馈问题-有图片，有描述，提交</t>
+  </si>
+  <si>
+    <t>登录-选择学校</t>
   </si>
 </sst>
 </file>
@@ -63,23 +641,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,18 +669,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,17 +683,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,8 +713,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -176,6 +744,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -190,8 +774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,20 +797,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,49 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +831,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,115 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +1019,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -469,17 +1049,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,22 +1075,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,153 +1103,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,6 +1310,36 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1029,89 +1636,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="G10:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="10" spans="7:9">
+      <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I10">
+        <f>作业!M3+练习!L5+错题!K4+我的!K3</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9">
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I11">
+        <f>作业!M4+练习!L6+错题!K5+我的!K4</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9">
+      <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I12">
+        <f>作业!M5+练习!L7+错题!K6+我的!K5</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9">
+      <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I13">
+        <f>作业!M6+练习!L8+错题!K7+我的!K6</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I14">
+        <f>练习!L9+错题!K8+我的!K7+作业!M7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I15" s="2">
+        <f>I13/I10</f>
+        <v>0.145945945945946</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="12:12">
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="12:13">
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="12:13">
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <f>COUNTIF(G:G,"NULL")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="12:13">
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6">
-        <f>COUNTIF(G:G,"PASS")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="12:13">
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <f>COUNTIF(G:G,"FAIL")</f>
-        <v>0</v>
+      <c r="I16" s="2">
+        <f>I12/I10</f>
+        <v>0.848648648648649</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1119,14 +1719,777 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF(G:G,"NULL")</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIF(G:G,"PASS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIF(G:G,"FAIL")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="2:7">
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="2:7">
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="2:7">
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="2:7">
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="2:7">
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="2:7">
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="2:7">
+      <c r="B66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="27" spans="2:7">
+      <c r="B70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="2:7">
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="2:7">
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="27" spans="2:7">
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="2:7">
+      <c r="B74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="2:7">
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="27" spans="2:7">
+      <c r="B76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="27" spans="2:7">
+      <c r="B77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G84 G85:G1048576">
+      <formula1>"NULL,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1136,16 +2499,1122 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="2:12">
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIF(G:G,"NULL")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="2:12">
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIF(G:G,"PASS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIF(G:G,"FAIL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="2:7">
+      <c r="B39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="2:7">
+      <c r="B42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G42 G43:G1048576">
+      <formula1>"NULL,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:11">
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(G:G,"NULL")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(G:G,"PASS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(G:G,"FAIL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="2:7">
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G35 G36:G1048576">
+      <formula1>"NULL,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(G:G,"NULL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(G:G,"PASS")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(G:G,"FAIL")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G$1:G$1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G28 G29:G1048576">
+      <formula1>"NULL,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>